--- a/docs/ストラテジ対策(応用情報).xlsx
+++ b/docs/ストラテジ対策(応用情報).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="923"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="923" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="5" r:id="rId1"/>
@@ -18,16 +18,17 @@
     <sheet name="8" sheetId="12" r:id="rId9"/>
     <sheet name="9" sheetId="10" r:id="rId10"/>
     <sheet name="10" sheetId="7" r:id="rId11"/>
-    <sheet name="平成25年秋期" sheetId="6" r:id="rId12"/>
-    <sheet name="平成26年秋期" sheetId="11" r:id="rId13"/>
-    <sheet name="平成27年秋期" sheetId="15" r:id="rId14"/>
-    <sheet name="令和元年秋期" sheetId="18" r:id="rId15"/>
+    <sheet name="平成25年春期" sheetId="19" r:id="rId12"/>
+    <sheet name="平成25年秋期" sheetId="6" r:id="rId13"/>
+    <sheet name="平成26年秋期" sheetId="11" r:id="rId14"/>
+    <sheet name="平成27年秋期" sheetId="15" r:id="rId15"/>
+    <sheet name="令和元年秋期" sheetId="18" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">平成25年秋期!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">平成26年秋期!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">平成27年秋期!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">令和元年秋期!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">平成25年秋期!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">平成26年秋期!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">平成27年秋期!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">令和元年秋期!$A$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -4650,6 +4651,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4659,10 +4664,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -4747,6 +4748,286 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3952875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1" descr="65.gif/image-size:412×126"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="990600" y="4857750"/>
+          <a:ext cx="3924300" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3238500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>184377</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2" descr="66.gif/image-size:350×225"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1009650" y="8134350"/>
+          <a:ext cx="3190875" cy="2051277"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3524250</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>38473</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3" descr="74.gif/image-size:281×263"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1666875" y="27165300"/>
+          <a:ext cx="2819400" cy="2638798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3120145</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4" descr="76.gif/image-size:226×101"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2057400" y="33832800"/>
+          <a:ext cx="2024770" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4933950</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5" descr="78.gif/image-size:474×108"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1381125" y="38671500"/>
+          <a:ext cx="4514850" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4916,7 +5197,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5086,7 +5367,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5123,7 +5404,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1952624" y="6946818"/>
+          <a:off x="1952624" y="1946193"/>
           <a:ext cx="2371725" cy="997031"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7556,54 +7837,37 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3952875</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>429395</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>95723</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1" descr="65.gif/image-size:412×126"/>
+        <xdr:cNvPr id="49" name="図 48"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="990600" y="4857750"/>
-          <a:ext cx="3924300" cy="1200150"/>
+          <a:off x="1085850" y="59569350"/>
+          <a:ext cx="5515745" cy="3391373"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -7611,221 +7875,4995 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3238500</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>184377</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200815</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>219394</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2" descr="66.gif/image-size:350×225"/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1009650" y="8134350"/>
-          <a:ext cx="3190875" cy="2051277"/>
+          <a:off x="714375" y="314325"/>
+          <a:ext cx="5658640" cy="2286319"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1095376" y="857250"/>
+          <a:ext cx="266700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3524250</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>38473</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>677021</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>723</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3" descr="74.gif/image-size:281×263"/>
+        <xdr:cNvPr id="5" name="図 4"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1666875" y="27165300"/>
-          <a:ext cx="2819400" cy="2638798"/>
+          <a:off x="819150" y="2676525"/>
+          <a:ext cx="5344271" cy="5182323"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="楕円 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114426" y="7343775"/>
+          <a:ext cx="266700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3120145</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19793</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4" descr="76.gif/image-size:226×101"/>
+        <xdr:cNvPr id="7" name="図 6"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="33832800"/>
-          <a:ext cx="2024770" cy="904875"/>
+          <a:off x="866775" y="8115300"/>
+          <a:ext cx="5325218" cy="2695951"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="楕円 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114426" y="9648825"/>
+          <a:ext cx="266700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4933950</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>191271</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>133992</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5" descr="78.gif/image-size:474×108"/>
+        <xdr:cNvPr id="9" name="図 8"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1381125" y="38671500"/>
-          <a:ext cx="4514850" cy="1028700"/>
+          <a:off x="838200" y="11010900"/>
+          <a:ext cx="5525271" cy="4601217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="楕円 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162051" y="11811000"/>
+          <a:ext cx="266700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="楕円 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="13373100"/>
+          <a:ext cx="266700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>134102</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="15897225"/>
+          <a:ext cx="5391902" cy="5058481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="楕円 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="16354425"/>
+          <a:ext cx="266700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="楕円 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="20154900"/>
+          <a:ext cx="266700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57888</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>219284</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="942975" y="21107400"/>
+          <a:ext cx="5287113" cy="1495634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="楕円 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162050" y="22126575"/>
+          <a:ext cx="266700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>172217</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>228994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847725" y="23126700"/>
+          <a:ext cx="5496692" cy="2819794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="楕円 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162050" y="25269825"/>
+          <a:ext cx="266700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>191255</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>19433</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="26088975"/>
+          <a:ext cx="5410955" cy="2743583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="楕円 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="26650950"/>
+          <a:ext cx="266700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="楕円 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="228600"/>
+          <a:ext cx="438149" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="楕円 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="26079450"/>
+          <a:ext cx="438149" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="楕円 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="2657475"/>
+          <a:ext cx="438149" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="楕円 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1095375" y="10144126"/>
+          <a:ext cx="333375" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="楕円 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="11001375"/>
+          <a:ext cx="438149" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="楕円 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="12753975"/>
+          <a:ext cx="438149" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="楕円 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="15735300"/>
+          <a:ext cx="438149" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="楕円 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="18773775"/>
+          <a:ext cx="438149" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="楕円 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3495676" y="22098001"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="楕円 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114426" y="24203026"/>
+          <a:ext cx="342900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>391214</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>124066</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="942975" y="29356050"/>
+          <a:ext cx="4934639" cy="1724266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="楕円 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="61169550"/>
+          <a:ext cx="266700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="楕円 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="30632400"/>
+          <a:ext cx="266700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76942</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>153093</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933450" y="31384875"/>
+          <a:ext cx="5315692" cy="4963218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="楕円 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="35518725"/>
+          <a:ext cx="266700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296045</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>133744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="36604575"/>
+          <a:ext cx="5515745" cy="2819794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="楕円 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="38661975"/>
+          <a:ext cx="266700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219826</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>219619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009650" y="39662100"/>
+          <a:ext cx="5382376" cy="3896269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="楕円 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="40214550"/>
+          <a:ext cx="266700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276980</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>152944</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="図 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="43881675"/>
+          <a:ext cx="5410955" cy="3896269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="楕円 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="47272575"/>
+          <a:ext cx="266700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>115035</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>143378</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="図 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="48215550"/>
+          <a:ext cx="5268060" cy="3600953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="楕円 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="51320700"/>
+          <a:ext cx="266700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>372259</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>191049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="図 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923925" y="52216050"/>
+          <a:ext cx="5620534" cy="3934374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="楕円 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="53349525"/>
+          <a:ext cx="266700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="楕円 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304925" y="55635525"/>
+          <a:ext cx="266700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>162665</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>143278</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="図 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="56549925"/>
+          <a:ext cx="5306165" cy="2886478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="楕円 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304925" y="57635775"/>
+          <a:ext cx="266700" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="楕円 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="29327475"/>
+          <a:ext cx="438149" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="楕円 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1352550" y="62131575"/>
+          <a:ext cx="438149" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="楕円 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="31308675"/>
+          <a:ext cx="438149" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="楕円 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="37071300"/>
+          <a:ext cx="438149" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="楕円 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="41729025"/>
+          <a:ext cx="438149" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="楕円 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="43910250"/>
+          <a:ext cx="438149" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="楕円 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752975" y="51244500"/>
+          <a:ext cx="438149" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="楕円 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4781550" y="53292375"/>
+          <a:ext cx="438149" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="楕円 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733800" y="55559325"/>
+          <a:ext cx="438149" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="楕円 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1190625" y="58054875"/>
+          <a:ext cx="438149" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="四角形吹き出し 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6753224" y="9353550"/>
+          <a:ext cx="3419475" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66794"/>
+            <a:gd name="adj2" fmla="val 26410"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>スマートグリッド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>は、ディジタル機器の通信能力や演算能力を活用することによって電力需要を自律的に調整し、省エネとコスト削減及び信頼性と透明性の向上を目指した新しい電力網システムです。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="四角形吹き出し 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629399" y="21278851"/>
+          <a:ext cx="4638676" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -91229"/>
+            <a:gd name="adj2" fmla="val 15434"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>フォロワ戦略</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>は、市場において</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>番目のシェアをもつ企業が選択すべきとされる戦略で、リーダ企業の製品を参考にしてコストダウンを図り、低価格で勝負する戦略です。競合他社からの報復を招かないように注意しつつ、中低価格志向の市場など市場シェア</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1,2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>位の企業にとってあまり魅力のない市場にターゲットを絞って収益性を高めることを目指します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="四角形吹き出し 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6791324" y="23812501"/>
+          <a:ext cx="4638676" cy="819149"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -63303"/>
+            <a:gd name="adj2" fmla="val 18483"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>戦略マップ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>は、バランススコアカードの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>つの視点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>財務，顧客，内部ビジネスプロセス，学習と成長</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>のそれぞれの戦略目標に、それらの因果関係をつなぐ矢印を書き加えてビジネス戦略を可視化したものです。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="四角形吹き出し 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6734175" y="36690300"/>
+          <a:ext cx="4638676" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -63303"/>
+            <a:gd name="adj2" fmla="val 18483"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ロングテール</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>は、膨大な商品を低コストで扱うことができるインターネットを使った商品販売において、実店舗では陳列されにくい販売機会の少ない商品でも、それらを数多く取りそろえることによって十分な売上を確保できることを説明した経済理論です。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="四角形吹き出し 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6886575" y="41595674"/>
+          <a:ext cx="4638676" cy="1781176"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -63303"/>
+            <a:gd name="adj2" fmla="val -23228"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>バスタブ曲線</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>は、故障率曲線とも呼ばれ、機械や装置の時間経過に伴う故障率の変化を表示した曲線のことです。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>一般的な機械や装置は初期故障期間では</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>故障率は高く</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>なり、その後の偶発故障期間での</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>故障率は低く</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、製品寿命に近づく摩耗故障期間では</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>故障率は高くなります</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>。縦軸に故障率、横軸に時間をとってグラフにすると、曲線がバスタブ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>浴槽</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>のようになることからこう呼ばれています。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="四角形吹き出し 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="49768124"/>
+          <a:ext cx="4638676" cy="2809875"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -77266"/>
+            <a:gd name="adj2" fmla="val 12087"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>売上高－変動費－固定費＝利益</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>来年度の変動費率は今年度と同じなので、売上高から変動費を引いた限界利益は、「売上高</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>×(1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>－変動費率</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」で表すことができます。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>来年度の固定費 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>= 380+100+80+20 = 580</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>変動費率 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>= (720+240) / 1600 = 0.6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>なので、後は公式に来年度の数値を代入して目標売上高</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(N)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を計算します。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>N ×  (1 - 0.6 ) - 580 = 240</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0.4N -580 = 240</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0.4 = 820</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>N = 2050</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直線コネクタ 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2028825" y="48710851"/>
+          <a:ext cx="1771650" cy="9524"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="四角形吹き出し 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6905625" y="52739925"/>
+          <a:ext cx="4638676" cy="1876426"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -78498"/>
+            <a:gd name="adj2" fmla="val -5399"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>耐用年数は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>年，減価償却は定額法，定額法の償却率は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0.250</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>なので</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>年間の償却額は、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>300,000×0.250</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>＝</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>75,000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>となります。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>固定資産の取得から</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>年後の帳簿価額は、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>300,000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>－</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(75,000×2)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>＝</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>150,000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>です。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>150,000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>円の固定資産を廃棄処分するので、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>除却損は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>150,000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>円に廃棄費用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>20,000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>を加えた「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>17.0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>万円」になります。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直線コネクタ 70"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="52597051"/>
+          <a:ext cx="1009650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直線コネクタ 72"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200400" y="53092351"/>
+          <a:ext cx="1400175" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線コネクタ 74"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="52578001"/>
+          <a:ext cx="1304925" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="直線コネクタ 76"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2828925" y="54606826"/>
+          <a:ext cx="3419475" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直線コネクタ 78"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="54844951"/>
+          <a:ext cx="3419475" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="四角形吹き出し 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7486650" y="58016775"/>
+          <a:ext cx="4638676" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -78498"/>
+            <a:gd name="adj2" fmla="val -5399"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>製造物責任法</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(PL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>法</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>は、製造物の欠陥によりにより人の生命、身体又は財産に係る被害が生じた際に製造業者の損害賠償の責任について定めることで、被害者の保護を目的とした法律です。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="四角形吹き出し 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="62093475"/>
+          <a:ext cx="4638676" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -80757"/>
+            <a:gd name="adj2" fmla="val -26649"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>請負契約</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>は、請負人がある仕事を完成することを約束し、発注者がその仕事の結果に対してその報酬を支払うことを内容とする労務供給契約の一種で、「雇用契約」「指揮命令関係」ともに受注者と受注者の従業員の間にあります。請負契約であるにもかかわらず、受注者の従業員に対して発注者が指揮命令を行っていると偽装請負とみなされ、職業安定法による処罰の対象となります。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8096,7 +13134,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -8108,18 +13148,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
-      <c r="G2" s="62" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="G2" s="66" t="s">
         <v>645</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="18">
@@ -8198,7 +13238,7 @@
         <f t="shared" si="0"/>
         <v>LINK</v>
       </c>
-      <c r="H6" s="66" t="s">
+      <c r="H6" s="63" t="s">
         <v>662</v>
       </c>
       <c r="I6" s="14"/>
@@ -8368,7 +13408,7 @@
         <f t="shared" si="1"/>
         <v>LINK</v>
       </c>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="62" t="s">
         <v>649</v>
       </c>
       <c r="E19" s="15"/>
@@ -8381,7 +13421,7 @@
         <f t="shared" si="1"/>
         <v>LINK</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="62" t="s">
         <v>651</v>
       </c>
       <c r="E20" s="15"/>
@@ -8394,7 +13434,7 @@
         <f t="shared" si="1"/>
         <v>LINK</v>
       </c>
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="63" t="s">
         <v>653</v>
       </c>
       <c r="E21" s="12"/>
@@ -8407,7 +13447,7 @@
         <f t="shared" si="1"/>
         <v>LINK</v>
       </c>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="63" t="s">
         <v>655</v>
       </c>
       <c r="E22" s="12"/>
@@ -8420,7 +13460,7 @@
         <f t="shared" si="1"/>
         <v>LINK</v>
       </c>
-      <c r="D23" s="66" t="s">
+      <c r="D23" s="63" t="s">
         <v>658</v>
       </c>
       <c r="E23" s="12"/>
@@ -8433,7 +13473,7 @@
         <f t="shared" si="1"/>
         <v>LINK</v>
       </c>
-      <c r="D24" s="66" t="s">
+      <c r="D24" s="63" t="s">
         <v>660</v>
       </c>
       <c r="E24" s="12"/>
@@ -9520,11 +14560,26 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E163"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -11267,7 +16322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E149"/>
   <sheetViews>
@@ -12915,7 +17970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E159"/>
   <sheetViews>
@@ -14628,13 +19683,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -15165,8 +20220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC96"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -20356,7 +25411,7 @@
   <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -20850,37 +25905,37 @@
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="64" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="64" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="64" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D20" s="68" t="s">
+      <c r="D20" s="65" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="65" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="65" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="65" t="s">
         <v>696</v>
       </c>
     </row>

--- a/docs/ストラテジ対策(応用情報).xlsx
+++ b/docs/ストラテジ対策(応用情報).xlsx
@@ -11822,7 +11822,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>= 380+100+80+20 = 580</a:t>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>380+100+80+20 = 580</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -11849,7 +11861,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>= (720+240) / 1600 = 0.6</a:t>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(720+240) / 1600 = 0.6</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -11903,7 +11927,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="sng">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>

--- a/docs/ストラテジ対策(応用情報).xlsx
+++ b/docs/ストラテジ対策(応用情報).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="923" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="923"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="5" r:id="rId1"/>
@@ -18,17 +18,18 @@
     <sheet name="8" sheetId="12" r:id="rId9"/>
     <sheet name="9" sheetId="10" r:id="rId10"/>
     <sheet name="10" sheetId="7" r:id="rId11"/>
-    <sheet name="平成25年春期" sheetId="19" r:id="rId12"/>
-    <sheet name="平成25年秋期" sheetId="6" r:id="rId13"/>
-    <sheet name="平成26年秋期" sheetId="11" r:id="rId14"/>
-    <sheet name="平成27年秋期" sheetId="15" r:id="rId15"/>
-    <sheet name="令和元年秋期" sheetId="18" r:id="rId16"/>
+    <sheet name="11" sheetId="20" r:id="rId12"/>
+    <sheet name="平成25年春期" sheetId="19" r:id="rId13"/>
+    <sheet name="平成25年秋期" sheetId="6" r:id="rId14"/>
+    <sheet name="平成26年秋期" sheetId="11" r:id="rId15"/>
+    <sheet name="平成27年秋期" sheetId="15" r:id="rId16"/>
+    <sheet name="令和元年秋期" sheetId="18" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">平成25年秋期!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">平成26年秋期!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">平成27年秋期!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">令和元年秋期!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">平成25年秋期!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">平成26年秋期!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">平成27年秋期!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">令和元年秋期!$A$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="721">
   <si>
     <t>EA(エンタープライズアーキテクチャ)</t>
     <phoneticPr fontId="1"/>
@@ -4249,6 +4250,42 @@
   </si>
   <si>
     <t>要件の記録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>法務</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>労働関連・取引関連法規</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下請代金支払遅延等防止法(下請法)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親事業者による下請け業者に対する優越的地位の乱用行為を取り締まるために制定された法律です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>法律には、"下請け代金の支払い確保"のほかにも親事業者の義務や禁止事項などが条文化されており、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親事業者の下請事業者に対する取引を公正に行わせることで、下請け業者の利益を保護することを目的としています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親事業者が下請事業者から納品を受けた際に、下請事業者に責任がないにもかかわらず、給付の受領を拒むことは禁止されています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受領を拒むことができるのは、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①契約書面に明記された委託内容と異なる場合、②納品物に瑕疵等がある場合、③契約書面に明記された納期までに納品されない場合に限られます。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -13156,11 +13193,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J24"/>
+  <dimension ref="B2:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -13403,7 +13438,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="22" t="str">
-        <f t="shared" ref="C17:C24" si="1">HYPERLINK("#" &amp; $B17 &amp; "!B2","LINK")</f>
+        <f t="shared" ref="C17:C25" si="1">HYPERLINK("#" &amp; $B17 &amp; "!B2","LINK")</f>
         <v>LINK</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -13501,6 +13536,19 @@
         <v>660</v>
       </c>
       <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B25" s="21">
+        <v>11</v>
+      </c>
+      <c r="C25" s="22" t="str">
+        <f>HYPERLINK("#" &amp; $B25 &amp; "!B2","LINK")</f>
+        <v>LINK</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>712</v>
+      </c>
+      <c r="E25" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -14584,9 +14632,65 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>720</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -14597,7 +14701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E163"/>
   <sheetViews>
@@ -16346,7 +16450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E149"/>
   <sheetViews>
@@ -17994,7 +18098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E159"/>
   <sheetViews>
@@ -19707,7 +19811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
@@ -20244,8 +20348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC96"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
